--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.4753590007423439</v>
+        <v>-0.43819395801258</v>
       </c>
       <c r="D2">
-        <v>0.634551716190092</v>
+        <v>0.6640172576515282</v>
       </c>
       <c r="E2">
         <v>1.344953228805386</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.094547104264961</v>
+        <v>-0.8881633143687443</v>
       </c>
       <c r="D3">
-        <v>0.2737674158543295</v>
+        <v>0.380693328648146</v>
       </c>
       <c r="E3">
         <v>1.344953228805386</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.177733916761071</v>
+        <v>-0.754760689904277</v>
       </c>
       <c r="D4">
-        <v>0.2389583204566572</v>
+        <v>0.4555890788561443</v>
       </c>
       <c r="E4">
         <v>1.344953228805386</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.8348419210725907</v>
+        <v>-0.5518122247683077</v>
       </c>
       <c r="D5">
-        <v>0.4038462967226035</v>
+        <v>0.5846860333295036</v>
       </c>
       <c r="E5">
         <v>1.344953228805386</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.8033134129565708</v>
+        <v>-0.8828866639496744</v>
       </c>
       <c r="D6">
-        <v>0.4218314971565431</v>
+        <v>0.3834975420828419</v>
       </c>
       <c r="E6">
         <v>1.40754320739796</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.7402802729991206</v>
+        <v>-0.6404550776261693</v>
       </c>
       <c r="D7">
-        <v>0.4591644380678024</v>
+        <v>0.526169938700854</v>
       </c>
       <c r="E7">
         <v>1.40754320739796</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.550753710185764</v>
+        <v>-0.5110706562835502</v>
       </c>
       <c r="D8">
-        <v>0.5818269357422401</v>
+        <v>0.6126045082287481</v>
       </c>
       <c r="E8">
         <v>1.40754320739796</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.3712222142079118</v>
+        <v>0.2914649982419838</v>
       </c>
       <c r="D9">
-        <v>0.7104876351680036</v>
+        <v>0.7724665898568619</v>
       </c>
       <c r="E9">
         <v>1.604027321420487</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.4044516906061298</v>
+        <v>0.6916551167330753</v>
       </c>
       <c r="D10">
-        <v>0.6858977615576216</v>
+        <v>0.4938502324533329</v>
       </c>
       <c r="E10">
         <v>1.604027321420487</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.004452372302936094</v>
+        <v>-0.003502609520207065</v>
       </c>
       <c r="D11">
-        <v>0.9964477088642574</v>
+        <v>0.9972257985826867</v>
       </c>
       <c r="E11">
         <v>1.521129694060443</v>
